--- a/netbeans/analysis/analysis_2001_2005.xlsx
+++ b/netbeans/analysis/analysis_2001_2005.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q131"/>
+  <dimension ref="A1:N131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -416,27 +416,12 @@
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>OI Layer 1</t>
+          <t>OI-C D1</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>OI Layer 2-D1</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>OI Layer 2-D2</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>OI Layer 3</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>OI Layer 4</t>
+          <t>OI-C D2</t>
         </is>
       </c>
     </row>
@@ -487,6 +472,12 @@
       <c r="L2" t="n">
         <v>366</v>
       </c>
+      <c r="M2" t="n">
+        <v>1.654268383162242</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1.651655799267931</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -535,6 +526,12 @@
       <c r="L3" t="n">
         <v>24</v>
       </c>
+      <c r="M3" t="n">
+        <v>4.339764316681794</v>
+      </c>
+      <c r="N3" t="n">
+        <v>4.513070596627369</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -583,6 +580,12 @@
       <c r="L4" t="n">
         <v>1224</v>
       </c>
+      <c r="M4" t="n">
+        <v>1.654268383162241</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1.651655799267931</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -631,6 +634,12 @@
       <c r="L5" t="n">
         <v>90</v>
       </c>
+      <c r="M5" t="n">
+        <v>1.654268383162241</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1.651655799267931</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -679,6 +688,12 @@
       <c r="L6" t="n">
         <v>72</v>
       </c>
+      <c r="M6" t="n">
+        <v>4.450846542138501</v>
+      </c>
+      <c r="N6" t="n">
+        <v>4.527139057837856</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -727,6 +742,12 @@
       <c r="L7" t="n">
         <v>276</v>
       </c>
+      <c r="M7" t="n">
+        <v>1.654268383162241</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1.651655799267931</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -775,6 +796,12 @@
       <c r="L8" t="n">
         <v>600</v>
       </c>
+      <c r="M8" t="n">
+        <v>3.159782459776705</v>
+      </c>
+      <c r="N8" t="n">
+        <v>3.644870839750229</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -823,6 +850,12 @@
       <c r="L9" t="n">
         <v>684</v>
       </c>
+      <c r="M9" t="n">
+        <v>1.654268383162241</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1.651655799267931</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -871,6 +904,12 @@
       <c r="L10" t="n">
         <v>18</v>
       </c>
+      <c r="M10" t="n">
+        <v>1.654268383162242</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1.651655799267931</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -919,6 +958,12 @@
       <c r="L11" t="n">
         <v>36</v>
       </c>
+      <c r="M11" t="n">
+        <v>3.657870918182756</v>
+      </c>
+      <c r="N11" t="n">
+        <v>4.144991857106304</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -967,6 +1012,12 @@
       <c r="L12" t="n">
         <v>396</v>
       </c>
+      <c r="M12" t="n">
+        <v>1.654268383162242</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1.651655799267931</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1015,6 +1066,12 @@
       <c r="L13" t="n">
         <v>576</v>
       </c>
+      <c r="M13" t="n">
+        <v>1.654268383162241</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1.651655799267931</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1063,6 +1120,12 @@
       <c r="L14" t="n">
         <v>30</v>
       </c>
+      <c r="M14" t="n">
+        <v>3.159782459776706</v>
+      </c>
+      <c r="N14" t="n">
+        <v>4.149123491699418</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1111,6 +1174,12 @@
       <c r="L15" t="n">
         <v>906</v>
       </c>
+      <c r="M15" t="n">
+        <v>1.654268383162242</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1.651655799267931</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1159,6 +1228,12 @@
       <c r="L16" t="n">
         <v>306</v>
       </c>
+      <c r="M16" t="n">
+        <v>1.654268383162242</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1.651655799267931</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1207,6 +1282,12 @@
       <c r="L17" t="n">
         <v>594</v>
       </c>
+      <c r="M17" t="n">
+        <v>1.654268383162242</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1.651655799267931</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1255,6 +1336,12 @@
       <c r="L18" t="n">
         <v>78</v>
       </c>
+      <c r="M18" t="n">
+        <v>1.654268383162241</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1.651655799267931</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1303,6 +1390,12 @@
       <c r="L19" t="n">
         <v>444</v>
       </c>
+      <c r="M19" t="n">
+        <v>1.654268383162242</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1.651655799267931</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1351,6 +1444,12 @@
       <c r="L20" t="n">
         <v>222</v>
       </c>
+      <c r="M20" t="n">
+        <v>3.913105919590139</v>
+      </c>
+      <c r="N20" t="n">
+        <v>4.048774805504364</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1399,6 +1498,12 @@
       <c r="L21" t="n">
         <v>150</v>
       </c>
+      <c r="M21" t="n">
+        <v>3.913105919590139</v>
+      </c>
+      <c r="N21" t="n">
+        <v>4.149742667211139</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1447,6 +1552,12 @@
       <c r="L22" t="n">
         <v>432</v>
       </c>
+      <c r="M22" t="n">
+        <v>3.913105919590139</v>
+      </c>
+      <c r="N22" t="n">
+        <v>4.151589771023718</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1495,6 +1606,12 @@
       <c r="L23" t="n">
         <v>690</v>
       </c>
+      <c r="M23" t="n">
+        <v>3.159782459776705</v>
+      </c>
+      <c r="N23" t="n">
+        <v>3.894721706989975</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1543,6 +1660,12 @@
       <c r="L24" t="n">
         <v>408</v>
       </c>
+      <c r="M24" t="n">
+        <v>1.654268383162241</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1.651655799267931</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1591,6 +1714,12 @@
       <c r="L25" t="n">
         <v>108</v>
       </c>
+      <c r="M25" t="n">
+        <v>4.517468516179055</v>
+      </c>
+      <c r="N25" t="n">
+        <v>4.52985153043865</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1639,6 +1768,12 @@
       <c r="L26" t="n">
         <v>1818</v>
       </c>
+      <c r="M26" t="n">
+        <v>1.654268383162242</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1.651655799267931</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1687,6 +1822,12 @@
       <c r="L27" t="n">
         <v>6</v>
       </c>
+      <c r="M27" t="n">
+        <v>1.654268383162242</v>
+      </c>
+      <c r="N27" t="n">
+        <v>3.156220721281644</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1735,6 +1876,12 @@
       <c r="L28" t="n">
         <v>624</v>
       </c>
+      <c r="M28" t="n">
+        <v>3.913105919590139</v>
+      </c>
+      <c r="N28" t="n">
+        <v>4.048774805504364</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1783,6 +1930,12 @@
       <c r="L29" t="n">
         <v>150</v>
       </c>
+      <c r="M29" t="n">
+        <v>4.515538755420033</v>
+      </c>
+      <c r="N29" t="n">
+        <v>4.52221976066487</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1831,6 +1984,12 @@
       <c r="L30" t="n">
         <v>246</v>
       </c>
+      <c r="M30" t="n">
+        <v>1.654268383162241</v>
+      </c>
+      <c r="N30" t="n">
+        <v>1.651655799267931</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1879,6 +2038,12 @@
       <c r="L31" t="n">
         <v>270</v>
       </c>
+      <c r="M31" t="n">
+        <v>1.654268383162242</v>
+      </c>
+      <c r="N31" t="n">
+        <v>1.651655799267931</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1927,6 +2092,12 @@
       <c r="L32" t="n">
         <v>516</v>
       </c>
+      <c r="M32" t="n">
+        <v>1.654268383162242</v>
+      </c>
+      <c r="N32" t="n">
+        <v>1.651655799267931</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1975,6 +2146,12 @@
       <c r="L33" t="n">
         <v>228</v>
       </c>
+      <c r="M33" t="n">
+        <v>4.539023034064759</v>
+      </c>
+      <c r="N33" t="n">
+        <v>4.533159802428781</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2023,6 +2200,12 @@
       <c r="L34" t="n">
         <v>306</v>
       </c>
+      <c r="M34" t="n">
+        <v>1.654268383162242</v>
+      </c>
+      <c r="N34" t="n">
+        <v>3.156220721281644</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2071,6 +2254,12 @@
       <c r="L35" t="n">
         <v>312</v>
       </c>
+      <c r="M35" t="n">
+        <v>1.654268383162241</v>
+      </c>
+      <c r="N35" t="n">
+        <v>1.651655799267931</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2119,6 +2308,12 @@
       <c r="L36" t="n">
         <v>378</v>
       </c>
+      <c r="M36" t="n">
+        <v>1.654268383162241</v>
+      </c>
+      <c r="N36" t="n">
+        <v>3.156220721281644</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2167,6 +2362,12 @@
       <c r="L37" t="n">
         <v>12</v>
       </c>
+      <c r="M37" t="n">
+        <v>1.654268383162242</v>
+      </c>
+      <c r="N37" t="n">
+        <v>1.651655799267931</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2215,6 +2416,12 @@
       <c r="L38" t="n">
         <v>894</v>
       </c>
+      <c r="M38" t="n">
+        <v>1.654268383162242</v>
+      </c>
+      <c r="N38" t="n">
+        <v>1.651655799267931</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2263,6 +2470,12 @@
       <c r="L39" t="n">
         <v>54</v>
       </c>
+      <c r="M39" t="n">
+        <v>3.913105919590139</v>
+      </c>
+      <c r="N39" t="n">
+        <v>4.147926785864612</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2311,6 +2524,12 @@
       <c r="L40" t="n">
         <v>936</v>
       </c>
+      <c r="M40" t="n">
+        <v>1.654268383162242</v>
+      </c>
+      <c r="N40" t="n">
+        <v>1.651655799267931</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2359,6 +2578,12 @@
       <c r="L41" t="n">
         <v>66</v>
       </c>
+      <c r="M41" t="n">
+        <v>3.903772835925403</v>
+      </c>
+      <c r="N41" t="n">
+        <v>4.218167204043315</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2407,6 +2632,12 @@
       <c r="L42" t="n">
         <v>174</v>
       </c>
+      <c r="M42" t="n">
+        <v>1.654268383162242</v>
+      </c>
+      <c r="N42" t="n">
+        <v>1.651655799267931</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2455,6 +2686,12 @@
       <c r="L43" t="n">
         <v>72</v>
       </c>
+      <c r="M43" t="n">
+        <v>1.654268383162242</v>
+      </c>
+      <c r="N43" t="n">
+        <v>3.161581708019598</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -2503,6 +2740,12 @@
       <c r="L44" t="n">
         <v>66</v>
       </c>
+      <c r="M44" t="n">
+        <v>3.91310591959014</v>
+      </c>
+      <c r="N44" t="n">
+        <v>4.048774805504362</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2551,6 +2794,12 @@
       <c r="L45" t="n">
         <v>360</v>
       </c>
+      <c r="M45" t="n">
+        <v>3.159782459776707</v>
+      </c>
+      <c r="N45" t="n">
+        <v>3.644870839750229</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -2599,6 +2848,12 @@
       <c r="L46" t="n">
         <v>54</v>
       </c>
+      <c r="M46" t="n">
+        <v>1.654268383162241</v>
+      </c>
+      <c r="N46" t="n">
+        <v>1.651655799267931</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -2647,6 +2902,12 @@
       <c r="L47" t="n">
         <v>612</v>
       </c>
+      <c r="M47" t="n">
+        <v>1.654268383162242</v>
+      </c>
+      <c r="N47" t="n">
+        <v>1.651655799267931</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -2695,6 +2956,12 @@
       <c r="L48" t="n">
         <v>648</v>
       </c>
+      <c r="M48" t="n">
+        <v>1.654268383162241</v>
+      </c>
+      <c r="N48" t="n">
+        <v>1.651655799267931</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -2743,6 +3010,12 @@
       <c r="L49" t="n">
         <v>174</v>
       </c>
+      <c r="M49" t="n">
+        <v>4.15928868918822</v>
+      </c>
+      <c r="N49" t="n">
+        <v>4.221376214562924</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -2791,6 +3064,12 @@
       <c r="L50" t="n">
         <v>570</v>
       </c>
+      <c r="M50" t="n">
+        <v>1.654268383162242</v>
+      </c>
+      <c r="N50" t="n">
+        <v>1.651655799267931</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -2839,6 +3118,12 @@
       <c r="L51" t="n">
         <v>378</v>
       </c>
+      <c r="M51" t="n">
+        <v>1.654268383162241</v>
+      </c>
+      <c r="N51" t="n">
+        <v>3.156220721281644</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -2887,6 +3172,12 @@
       <c r="L52" t="n">
         <v>264</v>
       </c>
+      <c r="M52" t="n">
+        <v>1.654268383162241</v>
+      </c>
+      <c r="N52" t="n">
+        <v>1.651655799267931</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -2935,6 +3226,12 @@
       <c r="L53" t="n">
         <v>24</v>
       </c>
+      <c r="M53" t="n">
+        <v>3.159782459776706</v>
+      </c>
+      <c r="N53" t="n">
+        <v>4.150793235874758</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -2983,6 +3280,12 @@
       <c r="L54" t="n">
         <v>24</v>
       </c>
+      <c r="M54" t="n">
+        <v>1.654268383162242</v>
+      </c>
+      <c r="N54" t="n">
+        <v>1.651655799267931</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -3031,6 +3334,12 @@
       <c r="L55" t="n">
         <v>48</v>
       </c>
+      <c r="M55" t="n">
+        <v>1.654268383162242</v>
+      </c>
+      <c r="N55" t="n">
+        <v>1.651655799267931</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -3079,6 +3388,12 @@
       <c r="L56" t="n">
         <v>120</v>
       </c>
+      <c r="M56" t="n">
+        <v>4.461674363084073</v>
+      </c>
+      <c r="N56" t="n">
+        <v>4.510906633372223</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -3127,6 +3442,12 @@
       <c r="L57" t="n">
         <v>774</v>
       </c>
+      <c r="M57" t="n">
+        <v>1.654268383162241</v>
+      </c>
+      <c r="N57" t="n">
+        <v>1.651655799267931</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -3175,6 +3496,12 @@
       <c r="L58" t="n">
         <v>96</v>
       </c>
+      <c r="M58" t="n">
+        <v>4.448092176256633</v>
+      </c>
+      <c r="N58" t="n">
+        <v>4.518447949731293</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -3223,6 +3550,12 @@
       <c r="L59" t="n">
         <v>192</v>
       </c>
+      <c r="M59" t="n">
+        <v>3.908458216884958</v>
+      </c>
+      <c r="N59" t="n">
+        <v>4.269566174374381</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -3271,6 +3604,12 @@
       <c r="L60" t="n">
         <v>168</v>
       </c>
+      <c r="M60" t="n">
+        <v>3.903772835925402</v>
+      </c>
+      <c r="N60" t="n">
+        <v>4.147618074174264</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -3319,6 +3658,12 @@
       <c r="L61" t="n">
         <v>498</v>
       </c>
+      <c r="M61" t="n">
+        <v>1.654268383162241</v>
+      </c>
+      <c r="N61" t="n">
+        <v>1.651655799267931</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -3367,6 +3712,12 @@
       <c r="L62" t="n">
         <v>330</v>
       </c>
+      <c r="M62" t="n">
+        <v>1.654268383162242</v>
+      </c>
+      <c r="N62" t="n">
+        <v>3.152077517179933</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -3415,6 +3766,12 @@
       <c r="L63" t="n">
         <v>732</v>
       </c>
+      <c r="M63" t="n">
+        <v>1.654268383162242</v>
+      </c>
+      <c r="N63" t="n">
+        <v>1.651655799267931</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -3463,6 +3820,12 @@
       <c r="L64" t="n">
         <v>294</v>
       </c>
+      <c r="M64" t="n">
+        <v>1.654268383162242</v>
+      </c>
+      <c r="N64" t="n">
+        <v>1.651655799267931</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -3511,6 +3874,12 @@
       <c r="L65" t="n">
         <v>108</v>
       </c>
+      <c r="M65" t="n">
+        <v>3.159782459776706</v>
+      </c>
+      <c r="N65" t="n">
+        <v>4.148356146225034</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -3559,6 +3928,12 @@
       <c r="L66" t="n">
         <v>30</v>
       </c>
+      <c r="M66" t="n">
+        <v>4.535691678976135</v>
+      </c>
+      <c r="N66" t="n">
+        <v>4.528696612750359</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -3607,6 +3982,12 @@
       <c r="L67" t="n">
         <v>66</v>
       </c>
+      <c r="M67" t="n">
+        <v>3.159782459776707</v>
+      </c>
+      <c r="N67" t="n">
+        <v>4.045859514994875</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -3655,6 +4036,12 @@
       <c r="L68" t="n">
         <v>114</v>
       </c>
+      <c r="M68" t="n">
+        <v>3.159782459776705</v>
+      </c>
+      <c r="N68" t="n">
+        <v>4.049205398141453</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -3703,6 +4090,12 @@
       <c r="L69" t="n">
         <v>570</v>
       </c>
+      <c r="M69" t="n">
+        <v>1.654268383162242</v>
+      </c>
+      <c r="N69" t="n">
+        <v>1.651655799267931</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -3751,6 +4144,12 @@
       <c r="L70" t="n">
         <v>6</v>
       </c>
+      <c r="M70" t="n">
+        <v>4.524177983502948</v>
+      </c>
+      <c r="N70" t="n">
+        <v>4.534029286806913</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -3799,6 +4198,12 @@
       <c r="L71" t="n">
         <v>90</v>
       </c>
+      <c r="M71" t="n">
+        <v>3.903772835925403</v>
+      </c>
+      <c r="N71" t="n">
+        <v>4.272736608268577</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -3847,6 +4252,12 @@
       <c r="L72" t="n">
         <v>6</v>
       </c>
+      <c r="M72" t="n">
+        <v>4.543436506322133</v>
+      </c>
+      <c r="N72" t="n">
+        <v>4.524865056051194</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -3895,6 +4306,12 @@
       <c r="L73" t="n">
         <v>246</v>
       </c>
+      <c r="M73" t="n">
+        <v>1.654268383162242</v>
+      </c>
+      <c r="N73" t="n">
+        <v>3.152077517179935</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -3943,6 +4360,12 @@
       <c r="L74" t="n">
         <v>18</v>
       </c>
+      <c r="M74" t="n">
+        <v>4.469954458463719</v>
+      </c>
+      <c r="N74" t="n">
+        <v>4.471876627807548</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -3991,6 +4414,12 @@
       <c r="L75" t="n">
         <v>18</v>
       </c>
+      <c r="M75" t="n">
+        <v>4.51925909065706</v>
+      </c>
+      <c r="N75" t="n">
+        <v>4.530707596008535</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -4039,6 +4468,12 @@
       <c r="L76" t="n">
         <v>18</v>
       </c>
+      <c r="M76" t="n">
+        <v>4.540117435549357</v>
+      </c>
+      <c r="N76" t="n">
+        <v>4.537501345644186</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -4087,6 +4522,12 @@
       <c r="L77" t="n">
         <v>24</v>
       </c>
+      <c r="M77" t="n">
+        <v>4.547706818642983</v>
+      </c>
+      <c r="N77" t="n">
+        <v>4.533735280837723</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -4135,6 +4576,12 @@
       <c r="L78" t="n">
         <v>6</v>
       </c>
+      <c r="M78" t="n">
+        <v>4.5463363982971</v>
+      </c>
+      <c r="N78" t="n">
+        <v>4.534669859601427</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -4183,6 +4630,12 @@
       <c r="L79" t="n">
         <v>6</v>
       </c>
+      <c r="M79" t="n">
+        <v>4.538236730466502</v>
+      </c>
+      <c r="N79" t="n">
+        <v>4.51767081507819</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -4231,6 +4684,12 @@
       <c r="L80" t="n">
         <v>48</v>
       </c>
+      <c r="M80" t="n">
+        <v>4.540918051740399</v>
+      </c>
+      <c r="N80" t="n">
+        <v>4.537785385969094</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -4279,6 +4738,12 @@
       <c r="L81" t="n">
         <v>42</v>
       </c>
+      <c r="M81" t="n">
+        <v>4.350647465154099</v>
+      </c>
+      <c r="N81" t="n">
+        <v>4.370136854066775</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -4327,6 +4792,12 @@
       <c r="L82" t="n">
         <v>66</v>
       </c>
+      <c r="M82" t="n">
+        <v>4.510350286674068</v>
+      </c>
+      <c r="N82" t="n">
+        <v>4.517772444647441</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -4375,6 +4846,12 @@
       <c r="L83" t="n">
         <v>240</v>
       </c>
+      <c r="M83" t="n">
+        <v>1.654268383162242</v>
+      </c>
+      <c r="N83" t="n">
+        <v>3.156220721281644</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -4423,6 +4900,12 @@
       <c r="L84" t="n">
         <v>6</v>
       </c>
+      <c r="M84" t="n">
+        <v>4.316334898635231</v>
+      </c>
+      <c r="N84" t="n">
+        <v>3.696771779833536</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -4471,6 +4954,12 @@
       <c r="L85" t="n">
         <v>6</v>
       </c>
+      <c r="M85" t="n">
+        <v>4.537784433135515</v>
+      </c>
+      <c r="N85" t="n">
+        <v>4.52447524040121</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -4519,6 +5008,12 @@
       <c r="L86" t="n">
         <v>6</v>
       </c>
+      <c r="M86" t="n">
+        <v>4.339848422942958</v>
+      </c>
+      <c r="N86" t="n">
+        <v>4.330796952068353</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -4567,6 +5062,12 @@
       <c r="L87" t="n">
         <v>18</v>
       </c>
+      <c r="M87" t="n">
+        <v>4.54585758354408</v>
+      </c>
+      <c r="N87" t="n">
+        <v>4.535132164776041</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -4615,6 +5116,12 @@
       <c r="L88" t="n">
         <v>198</v>
       </c>
+      <c r="M88" t="n">
+        <v>1.654268383162241</v>
+      </c>
+      <c r="N88" t="n">
+        <v>3.904525275994793</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -4663,6 +5170,12 @@
       <c r="L89" t="n">
         <v>24</v>
       </c>
+      <c r="M89" t="n">
+        <v>4.522569967542031</v>
+      </c>
+      <c r="N89" t="n">
+        <v>4.529912490938667</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -4711,6 +5224,12 @@
       <c r="L90" t="n">
         <v>42</v>
       </c>
+      <c r="M90" t="n">
+        <v>1.654268383162241</v>
+      </c>
+      <c r="N90" t="n">
+        <v>1.651655799267931</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -4759,6 +5278,12 @@
       <c r="L91" t="n">
         <v>6</v>
       </c>
+      <c r="M91" t="n">
+        <v>1.654268383162241</v>
+      </c>
+      <c r="N91" t="n">
+        <v>1.651655799267931</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -4807,6 +5332,12 @@
       <c r="L92" t="n">
         <v>12</v>
       </c>
+      <c r="M92" t="n">
+        <v>4.50145689847992</v>
+      </c>
+      <c r="N92" t="n">
+        <v>4.511561068081873</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -4855,6 +5386,12 @@
       <c r="L93" t="n">
         <v>6</v>
       </c>
+      <c r="M93" t="n">
+        <v>4.524353465261009</v>
+      </c>
+      <c r="N93" t="n">
+        <v>4.517444031360529</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -4903,6 +5440,12 @@
       <c r="L94" t="n">
         <v>108</v>
       </c>
+      <c r="M94" t="n">
+        <v>1.654268383162242</v>
+      </c>
+      <c r="N94" t="n">
+        <v>3.150969224370906</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -4951,6 +5494,12 @@
       <c r="L95" t="n">
         <v>24</v>
       </c>
+      <c r="M95" t="n">
+        <v>3.159782459776706</v>
+      </c>
+      <c r="N95" t="n">
+        <v>4.149917546798185</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -4999,6 +5548,12 @@
       <c r="L96" t="n">
         <v>36</v>
       </c>
+      <c r="M96" t="n">
+        <v>4.050584472825576</v>
+      </c>
+      <c r="N96" t="n">
+        <v>4.365902965440614</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -5047,6 +5602,12 @@
       <c r="L97" t="n">
         <v>78</v>
       </c>
+      <c r="M97" t="n">
+        <v>4.319774955205694</v>
+      </c>
+      <c r="N97" t="n">
+        <v>4.392585204896672</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -5095,6 +5656,12 @@
       <c r="L98" t="n">
         <v>90</v>
       </c>
+      <c r="M98" t="n">
+        <v>3.906993401023128</v>
+      </c>
+      <c r="N98" t="n">
+        <v>4.209457323101909</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -5143,6 +5710,12 @@
       <c r="L99" t="n">
         <v>336</v>
       </c>
+      <c r="M99" t="n">
+        <v>1.654268383162241</v>
+      </c>
+      <c r="N99" t="n">
+        <v>1.651655799267931</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -5191,6 +5764,12 @@
       <c r="L100" t="n">
         <v>42</v>
       </c>
+      <c r="M100" t="n">
+        <v>1.654268383162241</v>
+      </c>
+      <c r="N100" t="n">
+        <v>3.904525275994795</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -5239,6 +5818,12 @@
       <c r="L101" t="n">
         <v>12</v>
       </c>
+      <c r="M101" t="n">
+        <v>3.160499350390281</v>
+      </c>
+      <c r="N101" t="n">
+        <v>3.660823861975416</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -5287,6 +5872,12 @@
       <c r="L102" t="n">
         <v>6</v>
       </c>
+      <c r="M102" t="n">
+        <v>1.654268383162241</v>
+      </c>
+      <c r="N102" t="n">
+        <v>1.651655799267931</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -5335,6 +5926,12 @@
       <c r="L103" t="n">
         <v>18</v>
       </c>
+      <c r="M103" t="n">
+        <v>3.157960386694042</v>
+      </c>
+      <c r="N103" t="n">
+        <v>3.898909894575835</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -5383,6 +5980,12 @@
       <c r="L104" t="n">
         <v>42</v>
       </c>
+      <c r="M104" t="n">
+        <v>4.228388076430403</v>
+      </c>
+      <c r="N104" t="n">
+        <v>4.36919065718835</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -5431,6 +6034,12 @@
       <c r="L105" t="n">
         <v>6</v>
       </c>
+      <c r="M105" t="n">
+        <v>4.505851402844436</v>
+      </c>
+      <c r="N105" t="n">
+        <v>4.516537467590612</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -5479,6 +6088,12 @@
       <c r="L106" t="n">
         <v>108</v>
       </c>
+      <c r="M106" t="n">
+        <v>4.228671361147613</v>
+      </c>
+      <c r="N106" t="n">
+        <v>4.389373891959801</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -5527,6 +6142,12 @@
       <c r="L107" t="n">
         <v>132</v>
       </c>
+      <c r="M107" t="n">
+        <v>3.658713358807455</v>
+      </c>
+      <c r="N107" t="n">
+        <v>4.220558571569413</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -5575,6 +6196,12 @@
       <c r="L108" t="n">
         <v>114</v>
       </c>
+      <c r="M108" t="n">
+        <v>4.062723593097379</v>
+      </c>
+      <c r="N108" t="n">
+        <v>4.31633037984972</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -5623,6 +6250,12 @@
       <c r="L109" t="n">
         <v>198</v>
       </c>
+      <c r="M109" t="n">
+        <v>4.232333055169073</v>
+      </c>
+      <c r="N109" t="n">
+        <v>4.373579949269214</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -5671,6 +6304,12 @@
       <c r="L110" t="n">
         <v>234</v>
       </c>
+      <c r="M110" t="n">
+        <v>4.056312836725405</v>
+      </c>
+      <c r="N110" t="n">
+        <v>4.141106382501448</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -5719,6 +6358,12 @@
       <c r="L111" t="n">
         <v>66</v>
       </c>
+      <c r="M111" t="n">
+        <v>3.163231541661506</v>
+      </c>
+      <c r="N111" t="n">
+        <v>4.151051078976162</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -5767,6 +6412,12 @@
       <c r="L112" t="n">
         <v>12</v>
       </c>
+      <c r="M112" t="n">
+        <v>1.654268383162242</v>
+      </c>
+      <c r="N112" t="n">
+        <v>3.904525275994794</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -5815,6 +6466,12 @@
       <c r="L113" t="n">
         <v>54</v>
       </c>
+      <c r="M113" t="n">
+        <v>3.163231541661506</v>
+      </c>
+      <c r="N113" t="n">
+        <v>4.31460107917099</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -5863,6 +6520,12 @@
       <c r="L114" t="n">
         <v>18</v>
       </c>
+      <c r="M114" t="n">
+        <v>4.052660287786129</v>
+      </c>
+      <c r="N114" t="n">
+        <v>4.372376151218845</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -5911,6 +6574,12 @@
       <c r="L115" t="n">
         <v>66</v>
       </c>
+      <c r="M115" t="n">
+        <v>4.280274950373244</v>
+      </c>
+      <c r="N115" t="n">
+        <v>4.370731478551928</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -5959,6 +6628,12 @@
       <c r="L116" t="n">
         <v>150</v>
       </c>
+      <c r="M116" t="n">
+        <v>4.448512232817073</v>
+      </c>
+      <c r="N116" t="n">
+        <v>4.439695092548654</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -6007,6 +6682,12 @@
       <c r="L117" t="n">
         <v>30</v>
       </c>
+      <c r="M117" t="n">
+        <v>4.538393828313936</v>
+      </c>
+      <c r="N117" t="n">
+        <v>4.519873143673649</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -6055,6 +6736,12 @@
       <c r="L118" t="n">
         <v>624</v>
       </c>
+      <c r="M118" t="n">
+        <v>4.43358620621547</v>
+      </c>
+      <c r="N118" t="n">
+        <v>4.425464374526978</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -6103,6 +6790,12 @@
       <c r="L119" t="n">
         <v>120</v>
       </c>
+      <c r="M119" t="n">
+        <v>4.15960161567546</v>
+      </c>
+      <c r="N119" t="n">
+        <v>4.271778663055556</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -6151,6 +6844,12 @@
       <c r="L120" t="n">
         <v>36</v>
       </c>
+      <c r="M120" t="n">
+        <v>4.507166793086751</v>
+      </c>
+      <c r="N120" t="n">
+        <v>4.498041022186393</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -6199,6 +6898,12 @@
       <c r="L121" t="n">
         <v>60</v>
       </c>
+      <c r="M121" t="n">
+        <v>4.469765784554374</v>
+      </c>
+      <c r="N121" t="n">
+        <v>4.461180794801084</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -6247,6 +6952,12 @@
       <c r="L122" t="n">
         <v>18</v>
       </c>
+      <c r="M122" t="n">
+        <v>3.159782459776706</v>
+      </c>
+      <c r="N122" t="n">
+        <v>4.147618074174264</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -6295,6 +7006,12 @@
       <c r="L123" t="n">
         <v>54</v>
       </c>
+      <c r="M123" t="n">
+        <v>4.380378548531588</v>
+      </c>
+      <c r="N123" t="n">
+        <v>4.459846570909028</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -6343,6 +7060,12 @@
       <c r="L124" t="n">
         <v>24</v>
       </c>
+      <c r="M124" t="n">
+        <v>3.906540966305886</v>
+      </c>
+      <c r="N124" t="n">
+        <v>4.423996382647232</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -6391,6 +7114,12 @@
       <c r="L125" t="n">
         <v>6</v>
       </c>
+      <c r="M125" t="n">
+        <v>4.456393586550268</v>
+      </c>
+      <c r="N125" t="n">
+        <v>4.422115953707086</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -6439,6 +7168,12 @@
       <c r="L126" t="n">
         <v>6</v>
       </c>
+      <c r="M126" t="n">
+        <v>3.159454341776056</v>
+      </c>
+      <c r="N126" t="n">
+        <v>4.05698077619097</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -6487,6 +7222,12 @@
       <c r="L127" t="n">
         <v>6</v>
       </c>
+      <c r="M127" t="n">
+        <v>4.509387171384316</v>
+      </c>
+      <c r="N127" t="n">
+        <v>4.489183914558645</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -6535,6 +7276,12 @@
       <c r="L128" t="n">
         <v>12</v>
       </c>
+      <c r="M128" t="n">
+        <v>4.499574944469406</v>
+      </c>
+      <c r="N128" t="n">
+        <v>4.48791197222993</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -6583,6 +7330,12 @@
       <c r="L129" t="n">
         <v>6</v>
       </c>
+      <c r="M129" t="n">
+        <v>4.505147087072004</v>
+      </c>
+      <c r="N129" t="n">
+        <v>4.453757116627903</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -6631,6 +7384,12 @@
       <c r="L130" t="n">
         <v>12</v>
       </c>
+      <c r="M130" t="n">
+        <v>4.526988771994302</v>
+      </c>
+      <c r="N130" t="n">
+        <v>4.502884554042761</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -6678,6 +7437,12 @@
       </c>
       <c r="L131" t="n">
         <v>6</v>
+      </c>
+      <c r="M131" t="n">
+        <v>4.545950416190644</v>
+      </c>
+      <c r="N131" t="n">
+        <v>4.511699062350379</v>
       </c>
     </row>
   </sheetData>
